--- a/medicine/Psychotrope/Rosé-d'anjou/Rosé-d'anjou.xlsx
+++ b/medicine/Psychotrope/Rosé-d'anjou/Rosé-d'anjou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-d%27anjou</t>
+          <t>Rosé-d'anjou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosé d'Anjou est un vin rosé français d'appellation d'origine contrôlée[1] produit dans l'Anjou, une subdivision du vignoble de la vallée de la Loire
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosé d'Anjou est un vin rosé français d'appellation d'origine contrôlée produit dans l'Anjou, une subdivision du vignoble de la vallée de la Loire
 Vin avec une robe rose intense et douce en bouche. 
 </t>
         </is>
